--- a/Quizzes/Quiz1_prep/Quizz1_prep_sol.xlsx
+++ b/Quizzes/Quiz1_prep/Quizz1_prep_sol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14140" tabRatio="500" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20480" windowHeight="13660" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Prob 3" sheetId="1" r:id="rId1"/>
@@ -336,8 +336,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -421,7 +423,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -449,6 +451,7 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -476,6 +479,7 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1240,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1472,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1484,12 +1488,12 @@
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1497,7 +1501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>56</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>167.72499999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1543,7 +1547,7 @@
         <v>43.95</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1560,7 +1564,7 @@
         <v>211.67500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:12">
       <c r="D12" t="s">
         <v>59</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -1579,8 +1583,14 @@
         <f>D8/D13*100</f>
         <v>38.023172265133823</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -1590,6 +1600,82 @@
       <c r="E14" s="3">
         <f>D8/D14*100</f>
         <v>2.9922957308453491</v>
+      </c>
+      <c r="K14">
+        <f>K13+1</f>
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="K15">
+        <f t="shared" ref="K15:K23" si="1">K14+1</f>
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12">
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12">
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12">
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12">
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12">
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12">
+      <c r="L22">
+        <f>SUM(L13:L21)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
